--- a/data/trans_dic/P23_8_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_8_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 98,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +710,87 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>8,31%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,67%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>15,46%</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 13,58</t>
+          <t>4,5; 15,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,28</t>
+          <t>3,38; 9,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,37</t>
+          <t>3,94; 10,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 23,21</t>
+          <t>1,81; 9,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,24</t>
+          <t>4,32; 14,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 18,69</t>
+          <t>6,34; 13,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,4</t>
+          <t>7,1; 13,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,01</t>
+          <t>10,65; 22,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 18,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 12,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 10,54</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 10,9</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 16,08</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,49</t>
+          <t>2,87; 7,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,37</t>
+          <t>2,84; 11,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,53</t>
+          <t>4,51; 8,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 14,12</t>
+          <t>4,1; 10,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,21</t>
+          <t>5,89; 13,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 16,12</t>
+          <t>3,68; 7,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,49</t>
+          <t>4,45; 8,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,73</t>
+          <t>5,86; 11,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 13,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 9,37</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 8,08</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 7,53</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 9,98</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>3,06%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,88%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,93%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,49%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,22%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>8,15%</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,39</t>
+          <t>1,56; 10,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 7,59</t>
+          <t>1,31; 9,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,19</t>
+          <t>2,4; 6,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 14,79</t>
+          <t>3,76; 9,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,38</t>
+          <t>1,14; 4,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,21</t>
+          <t>1,4; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,33</t>
+          <t>3,0; 6,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,02</t>
+          <t>4,22; 9,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 7,13</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 5,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 5,71</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 8,51</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,19</t>
+          <t>3,58; 7,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,39</t>
+          <t>4,42; 10,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,59</t>
+          <t>7,16; 15,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,82</t>
+          <t>5,46; 10,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 13,91</t>
+          <t>3,56; 9,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 7,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,44</t>
+          <t>7,34; 15,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 13,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 8,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 8,53</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,0; 13,83</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 6,95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 7,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 7,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 9,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 8,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 6,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 7,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 11,97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 7,37</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 6,46</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 7,02</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 10,01</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 98,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28739</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30268</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20613</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33039</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55479</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>85668</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>94121</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>61778</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>85747</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>131669</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>114734</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14795; 49546</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17106; 48525</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28006; 72133</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7840; 40282</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17922; 58349</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37161; 80726</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61259; 116175</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>61872; 133464</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>41173; 94212</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>60243; 114984</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>100985; 171385</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>78264; 163038</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46364</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>59724</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100240</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68352</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>85630</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>64255</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>90820</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89309</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>131994</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>123979</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>191060</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>157661</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26577; 71858</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33594; 133415</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>72385; 135968</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42857; 107377</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>57913; 132919</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44520; 89231</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66648; 121613</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62242; 123862</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>97160; 178906</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>88442; 193425</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>151076; 233628</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>119539; 210210</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29612</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29368</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43719</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>49115</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18765</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24835</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51235</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>56511</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>48377</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>54203</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>94954</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>105625</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11135; 77728</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11038; 81643</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26039; 73381</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30868; 77727</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8726; 36848</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12981; 40732</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34867; 74443</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37609; 84709</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>27741; 105364</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>30913; 98697</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>68445; 128234</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>77254; 145567</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>76420</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57517</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111200</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103459</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41906</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>101695</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>179879</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>99423</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>212895</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>50274; 109651</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36530; 83830</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>76236; 165328</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>75036; 142385</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26131; 66265</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>68822; 146270</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>142332; 227426</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>70932; 133106</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>160289; 277005</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>181135</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>176877</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>189959</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>249279</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>240893</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>186476</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>227723</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>341635</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>422028</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>363353</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>417683</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>590915</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>138657; 234471</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>129987; 248507</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>152035; 241265</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>198790; 324316</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>190021; 301912</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>150713; 235134</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>187552; 273280</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>280419; 415486</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>356341; 508766</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>297502; 440767</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>362572; 486116</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>508231; 684504</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
